--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3231531.367707867</v>
+        <v>3335711.002158936</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>62.07870293839633</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>18.26225701841148</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247586</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>153.8454985023894</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>73.1120650638713</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>237.0210761317801</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>97.03085908134769</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>189.1779312239318</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.5110867208229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.8087673531392</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>99.00641483895878</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>67.89672680421759</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>233.6963945716658</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.90335196317984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575280767</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176204</v>
+        <v>114.5006452705931</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>280.4707242904082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>13.37642554686328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>98.42683230404829</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>84.07981473403068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>32.57570591153986</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.44013021076765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>2.445727774094548</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>112.6683130937964</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>183.2947721274502</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>238.6438084808564</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.08971311158807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.57516893523083</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>41.69085152457955</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>163.917104877319</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>41.69085152458006</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>60.66149661128562</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4028,7 +4030,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0.6197054599903095</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>205.0952071568231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495403</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C2" t="n">
-        <v>758.7856865549913</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="D2" t="n">
-        <v>400.5199879482408</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="E2" t="n">
-        <v>400.5199879482408</v>
+        <v>883.8708262827856</v>
       </c>
       <c r="F2" t="n">
-        <v>393.5744871990374</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>382.5424410844379</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>84.9588406932051</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1682.064597409264</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672846</v>
+        <v>1682.064597409264</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.927635901259</v>
+        <v>1682.064597409264</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.927635901259</v>
+        <v>1427.380109203377</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.927635901259</v>
+        <v>1137.962939166416</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.938085003241</v>
+        <v>909.9733882683989</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.898819086399</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
         <v>1213.898819086399</v>
@@ -4562,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2722.369447994162</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="Y5" t="n">
-        <v>1600.498659150521</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238871</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1736.20572867038</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1514.439113239906</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1225.33624636555</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1225.33624636555</v>
       </c>
       <c r="W7" t="n">
-        <v>706.9807142219045</v>
+        <v>935.919076328589</v>
       </c>
       <c r="X7" t="n">
-        <v>478.9911633238871</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.9911633238871</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1537.086630593157</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>1302.873252607111</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>917.0850000088669</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>506.0990952192594</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574645</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1768.881538518528</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1768.881538518528</v>
       </c>
       <c r="U10" t="n">
-        <v>1187.954627028569</v>
+        <v>1768.881538518528</v>
       </c>
       <c r="V10" t="n">
-        <v>933.2701388226822</v>
+        <v>1514.197050312641</v>
       </c>
       <c r="W10" t="n">
-        <v>643.8529687857215</v>
+        <v>1224.779880275681</v>
       </c>
       <c r="X10" t="n">
-        <v>415.8634178877041</v>
+        <v>996.7903293776634</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.8634178877041</v>
+        <v>775.9977502341333</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211832</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,19 +5287,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687887</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845476</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5537,25 +5539,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5704,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1694.157318601005</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1439.472830395119</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +6001,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991042</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711973</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6215,49 +6217,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>633.4413279836774</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>464.5051450557705</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2194.592113392523</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1905.516886736721</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2565.513299557012</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>3162.891787183564</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>3790.489750738171</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950414</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3079.45386151189</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C31" t="n">
-        <v>2910.517678583984</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>2760.401039171648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309227</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V31" t="n">
-        <v>3999.301626420638</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W31" t="n">
-        <v>3709.884456383677</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X31" t="n">
-        <v>3481.89490548566</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y31" t="n">
-        <v>3261.10232634213</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.795837888943</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2897.61754858922</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="C34" t="n">
-        <v>2728.681365661314</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661314</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661314</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>3656.118547443346</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>3428.128996545328</v>
       </c>
       <c r="Y34" t="n">
-        <v>3079.26601341946</v>
+        <v>3207.336417401798</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6953,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7019,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868832</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2356.04164637206</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2878.798005073647</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C40" t="n">
-        <v>2878.798005073647</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D40" t="n">
-        <v>2728.681365661312</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661312</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>444.8365647278429</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>277.6404654427228</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>135.9286342849209</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4342.405484844084</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4053.330258188282</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3798.645769982395</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3509.228599945434</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3281.239049047417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y40" t="n">
-        <v>3060.446469903887</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="41">
@@ -7391,67 +7393,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2985.713220456422</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>2985.713220456422</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>2835.596581044086</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2385.688844578962</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2202.834010233867</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1983.232545256808</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1694.157318601005</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X43" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y43" t="n">
-        <v>3167.361685286662</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3053.935450426147</v>
+        <v>3114.186543342963</v>
       </c>
       <c r="C46" t="n">
-        <v>2884.99926749824</v>
+        <v>2945.250360415057</v>
       </c>
       <c r="D46" t="n">
-        <v>2734.882628085905</v>
+        <v>2795.133721002721</v>
       </c>
       <c r="E46" t="n">
-        <v>2586.969534503512</v>
+        <v>2647.220627420328</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503512</v>
+        <v>2647.220627420328</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218392</v>
+        <v>2480.024528135208</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>2338.312696977406</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053499</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.37685307644</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420638</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>3792.134750504655</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W46" t="n">
-        <v>3502.717580467694</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X46" t="n">
-        <v>3274.728029569677</v>
+        <v>3516.627587316733</v>
       </c>
       <c r="Y46" t="n">
-        <v>3053.935450426147</v>
+        <v>3295.835008173203</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.9286282187575</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664503</v>
+        <v>34.11482774761924</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>38.59775584152634</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5.713750098835931</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>120.1578210480465</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>168.0578285897973</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.0089474405549</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>214.9597225531937</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>33.76564955277276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.8897022617939</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>47.87918985573464</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>127.2568112467065</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.57899151911104</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.57498479398597</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>53.48834544996924</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>104.7431111219891</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.713750098836037</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.64613085857521</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>47.04243616700492</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.592877856</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210056</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881572</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26439,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26457,7 +26459,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788705.1043992867</v>
+        <v>-788705.1043992876</v>
       </c>
       <c r="C6" t="n">
         <v>540039.6413283049</v>
       </c>
       <c r="D6" t="n">
-        <v>540039.6413283049</v>
+        <v>540039.641328305</v>
       </c>
       <c r="E6" t="n">
-        <v>288119.9718729369</v>
+        <v>288119.9718729373</v>
       </c>
       <c r="F6" t="n">
+        <v>613532.4336802922</v>
+      </c>
+      <c r="G6" t="n">
+        <v>613532.4336802922</v>
+      </c>
+      <c r="H6" t="n">
+        <v>613532.433680292</v>
+      </c>
+      <c r="I6" t="n">
+        <v>613532.4336802923</v>
+      </c>
+      <c r="J6" t="n">
+        <v>396001.2312830146</v>
+      </c>
+      <c r="K6" t="n">
+        <v>613532.4336802922</v>
+      </c>
+      <c r="L6" t="n">
+        <v>613532.4336802925</v>
+      </c>
+      <c r="M6" t="n">
+        <v>528477.4057447807</v>
+      </c>
+      <c r="N6" t="n">
         <v>613532.4336802926</v>
       </c>
-      <c r="G6" t="n">
-        <v>613532.4336802927</v>
-      </c>
-      <c r="H6" t="n">
-        <v>613532.4336802925</v>
-      </c>
-      <c r="I6" t="n">
-        <v>613532.4336802927</v>
-      </c>
-      <c r="J6" t="n">
-        <v>396001.2312830148</v>
-      </c>
-      <c r="K6" t="n">
-        <v>613532.4336802923</v>
-      </c>
-      <c r="L6" t="n">
-        <v>613532.4336802923</v>
-      </c>
-      <c r="M6" t="n">
-        <v>528477.4057447808</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>613532.4336802922</v>
-      </c>
-      <c r="O6" t="n">
-        <v>613532.4336802925</v>
       </c>
       <c r="P6" t="n">
         <v>613532.4336802925</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>344.7973428033151</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>23.31467275451453</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>35.92352682905249</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>213.0997731417416</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>112.2198925856329</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.2070795747059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.591094107510088</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.0119116157681</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222.9250743103414</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>311.9153108144947</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>121.8722985272243</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>52.51544363394703</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950807</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>454.5606621218839</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,7 +32332,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32716,7 +32718,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159428</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>316.0872899694772</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>576.0573465136306</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>587.1221002143864</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,7 +33511,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>579.8936048175469</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,7 +33520,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,7 +33739,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>709.4760096096869</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>502.2268148619681</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>338.9915131655318</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,7 +34222,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34372,7 +34374,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34448,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075048</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>316.7192231475249</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,7 +35980,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>173.4910455250327</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>433.4611020691861</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>444.525855769942</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>448.5518927342137</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>578.1342975263536</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.0097390795103</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38096,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3335711.002158936</v>
+        <v>3331698.392144944</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>62.07870293839633</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>217.1149800306793</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8454985023894</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>93.29836422792818</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.84399365306132</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>237.0210761317801</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>120.7389995830103</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.1779312239318</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>99.00641483895878</v>
+        <v>142.0975176632392</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>32.81976153660092</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>67.89672680421759</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>70.81964134445056</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>38.05096575280767</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>114.5006452705931</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>126.9263824507425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.42683230404829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.57570591153986</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>2.445727774094548</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>183.2947721274502</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>238.6438084808564</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>48.85497112745813</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.69085152457955</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>5.421623586788709</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.66149661128562</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6197054599903095</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>214.4033048062054</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223197</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C2" t="n">
-        <v>883.8708262827856</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D2" t="n">
-        <v>883.8708262827856</v>
+        <v>731.5828752918117</v>
       </c>
       <c r="E2" t="n">
-        <v>883.8708262827856</v>
+        <v>345.7946226935674</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>338.849121944364</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>327.8170758297645</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287319</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.5323442946291</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>507.5323442946291</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1682.064597409264</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1682.064597409264</v>
+        <v>1551.537434725445</v>
       </c>
       <c r="U4" t="n">
-        <v>1682.064597409264</v>
+        <v>1551.537434725445</v>
       </c>
       <c r="V4" t="n">
-        <v>1427.380109203377</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="W4" t="n">
-        <v>1137.962939166416</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X4" t="n">
-        <v>909.9733882683989</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y4" t="n">
-        <v>689.1808091248688</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2722.369447994162</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X5" t="n">
-        <v>2348.903689733083</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.764357757271</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1736.20572867038</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1514.439113239906</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.33624636555</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1225.33624636555</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>935.919076328589</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213862</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1661.138951213862</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.873252607111</v>
+        <v>1006.819119944519</v>
       </c>
       <c r="E8" t="n">
-        <v>917.0850000088669</v>
+        <v>621.030867346275</v>
       </c>
       <c r="F8" t="n">
-        <v>506.0990952192594</v>
+        <v>210.0449625566675</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>493.9956548034791</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>343.8790153911433</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>343.8790153911433</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>196.9890678932329</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>196.9890678932329</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1768.881538518528</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1768.881538518528</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1768.881538518528</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1514.197050312641</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.779880275681</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X10" t="n">
-        <v>996.7903293776634</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.9977502341333</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1028.490320362745</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>859.5541374348384</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>709.4374980225026</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>561.5244044401095</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>414.6344569421991</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>247.4383576570791</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2341.482060890433</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2052.406834234631</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028744</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5302,16 +5302,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2194.592113392523</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1905.516886736721</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.832398530834</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.415228493873</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687974</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408905</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.169680383432</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.485192177545</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1431.068022140585</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990371</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3656.118547443346</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3428.128996545328</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3207.336417401798</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400717</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.843151638089</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>741.843151638089</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>591.7265122257533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>591.7265122257533</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>444.8365647278429</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>277.6404654427228</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>135.9286342849209</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683287</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2385.688844578962</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2202.834010233867</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1983.232545256808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1694.157318601005</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1439.472830395119</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7654,7 +7654,7 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3114.186543342963</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>2945.250360415057</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>2795.133721002721</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>2647.220627420328</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>2647.220627420328</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2480.024528135208</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2338.312696977406</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3744.61713821475</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>3516.627587316733</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>3295.835008173203</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>69.47507150177333</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>179.3544845744806</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.11482774761924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>38.59775584152634</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.1578210480465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.0089474405549</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>214.9597225531937</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>40.90318636666117</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.8897022617939</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>47.87918985573464</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>97.57899151911104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>39.57498479398597</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.713750098836037</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>80.64613085857521</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778555</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778553</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778553</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
@@ -26328,16 +26328,16 @@
         <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210049</v>
-      </c>
       <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210052</v>
@@ -26346,16 +26346,16 @@
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26432,16 +26432,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788705.1043992876</v>
+        <v>-788705.1043992875</v>
       </c>
       <c r="C6" t="n">
+        <v>540039.641328305</v>
+      </c>
+      <c r="D6" t="n">
         <v>540039.6413283049</v>
       </c>
-      <c r="D6" t="n">
-        <v>540039.641328305</v>
-      </c>
       <c r="E6" t="n">
-        <v>288119.9718729373</v>
+        <v>287772.5926185803</v>
       </c>
       <c r="F6" t="n">
-        <v>613532.4336802922</v>
+        <v>613185.0544259354</v>
       </c>
       <c r="G6" t="n">
-        <v>613532.4336802922</v>
+        <v>613185.0544259353</v>
       </c>
       <c r="H6" t="n">
-        <v>613532.433680292</v>
+        <v>613185.0544259355</v>
       </c>
       <c r="I6" t="n">
-        <v>613532.4336802923</v>
+        <v>613185.0544259355</v>
       </c>
       <c r="J6" t="n">
-        <v>396001.2312830146</v>
+        <v>395653.8520286579</v>
       </c>
       <c r="K6" t="n">
-        <v>613532.4336802922</v>
+        <v>613185.0544259353</v>
       </c>
       <c r="L6" t="n">
-        <v>613532.4336802925</v>
+        <v>613185.0544259355</v>
       </c>
       <c r="M6" t="n">
-        <v>528477.4057447807</v>
+        <v>528130.0264904235</v>
       </c>
       <c r="N6" t="n">
-        <v>613532.4336802926</v>
+        <v>613185.0544259355</v>
       </c>
       <c r="O6" t="n">
-        <v>613532.4336802922</v>
+        <v>613185.0544259354</v>
       </c>
       <c r="P6" t="n">
-        <v>613532.4336802925</v>
+        <v>613185.0544259351</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26974,34 +26974,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>344.7973428033151</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77.49278435664112</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>35.92352682905249</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>126.250585048241</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>331.8898480104193</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>112.2198925856329</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>24.01601533131047</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0.591094107510088</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>311.9153108144947</v>
+        <v>268.8242079902142</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>111.9352533777199</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>121.8722985272243</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32077,31 +32077,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>213.3000196296242</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>579.8936048175469</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>709.4760096096869</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>502.2268148619681</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34444,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>79.325612215294</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>314.9434509778017</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>448.5518927342137</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>578.1342975263536</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>359.6305704175236</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38022,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3331698.392144944</v>
+        <v>3333458.92244773</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8094203.838161995</v>
+        <v>8094203.838161994</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>124.6100630360555</v>
       </c>
       <c r="H2" t="n">
-        <v>217.1149800306793</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.29836422792803</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>93.29836422792818</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.84399365306132</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>160.0317554412382</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H7" t="n">
-        <v>120.7389995830103</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>142.0975176632392</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>122.7433563196746</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>32.81976153660092</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>73.34931970216547</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>70.81964134445056</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.2642147042091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695362</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>107.7122866515512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.07327741456097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>214.4033048062054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.811090838974</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1089.848573898562</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D2" t="n">
-        <v>731.5828752918117</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="E2" t="n">
-        <v>345.7946226935674</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="F2" t="n">
-        <v>338.849121944364</v>
+        <v>531.9613661254177</v>
       </c>
       <c r="G2" t="n">
-        <v>327.8170758297645</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878907</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.410930903096</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>942.3115884254127</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>773.3754054975058</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>623.25876608517</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>475.3456725027769</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>328.4557250048665</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>160.7528883795855</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>160.7528883795855</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1551.537434725445</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1551.537434725445</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1296.852946519558</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W4" t="n">
-        <v>1296.852946519558</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X4" t="n">
-        <v>1068.863395621541</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.0708164780106</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2209.232076102165</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1482.003860555003</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1096.215607956758</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>685.2297031671508</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>270.1572530121472</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.54649786615</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.08073960507</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4713,19 +4713,19 @@
         <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>285.7963790512222</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.08481855127</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.819119944519</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>621.030867346275</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0449625566675</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.9318377313859</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>493.9956548034791</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>343.8790153911433</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>343.8790153911433</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F10" t="n">
-        <v>196.9890678932329</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G10" t="n">
-        <v>196.9890678932329</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>140.6023383535627</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.372881705156</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.5803025616257</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1028.490320362745</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>859.5541374348384</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>709.4374980225026</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>561.5244044401095</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>414.6344569421991</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>247.4383576570791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1430.931364336515</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.138785192985</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,16 +5360,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5427,7 +5427,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5904,10 +5904,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>69.47507150177333</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038612</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.90318636666117</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>697053.601106727</v>
+        <v>697053.6011067269</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>697053.6011067269</v>
+        <v>697053.601106727</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.592877856</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
@@ -26325,16 +26325,16 @@
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
@@ -26343,19 +26343,19 @@
         <v>726431.9397210052</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.9762168059</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26524,46 +26524,46 @@
         <v>-788705.1043992875</v>
       </c>
       <c r="C6" t="n">
-        <v>540039.641328305</v>
+        <v>540039.6413283056</v>
       </c>
       <c r="D6" t="n">
         <v>540039.6413283049</v>
       </c>
       <c r="E6" t="n">
-        <v>287772.5926185803</v>
+        <v>288085.2339475017</v>
       </c>
       <c r="F6" t="n">
-        <v>613185.0544259354</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="G6" t="n">
-        <v>613185.0544259353</v>
+        <v>613497.6957548567</v>
       </c>
       <c r="H6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="I6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="J6" t="n">
-        <v>395653.8520286579</v>
+        <v>395966.4933575792</v>
       </c>
       <c r="K6" t="n">
-        <v>613185.0544259353</v>
+        <v>613497.6957548566</v>
       </c>
       <c r="L6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.695754857</v>
       </c>
       <c r="M6" t="n">
-        <v>528130.0264904235</v>
+        <v>528442.6678193448</v>
       </c>
       <c r="N6" t="n">
-        <v>613185.0544259355</v>
+        <v>613497.6957548572</v>
       </c>
       <c r="O6" t="n">
-        <v>613185.0544259354</v>
+        <v>613497.6957548568</v>
       </c>
       <c r="P6" t="n">
-        <v>613185.0544259351</v>
+        <v>613497.6957548568</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.450268161230248e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.450268161230248e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.450268161230248e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>286.3116626173979</v>
       </c>
       <c r="H2" t="n">
-        <v>77.49278435664112</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>3.054056181910056</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>126.250585048241</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.8898480104193</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>134.5760089460823</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H7" t="n">
-        <v>24.01601533131047</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>268.8242079902142</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>226.4976123977384</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>111.9352533777199</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.00310070767262</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29283,16 +29283,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.450268161230248e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.450268161230248e-14</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.675773185606049e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
